--- a/DZ.xlsx
+++ b/DZ.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="电子文件" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>保管期限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,64 @@
   </si>
   <si>
     <t>XDA11-DZ·04-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多平台南海冷泉区立体协同探测开启我国海洋科考新模式新闻报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XDA11-DZ·04-002</t>
+  </si>
+  <si>
+    <t>XDA11-DZ·04-003</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋先导专项2017年南海综合航次和东海航次在青岛起航新闻报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科院海洋先导专项项目课题论证会在沈阳举行新闻报道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海探测设备研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20130704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20170810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sia.cas.cn/xwzx/zhxw/201307/t20130704_3893036.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sia.cas.cn/xwzx/zhxw/201707/t20170712_4832178.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sia.cas.cn/xwzx/tpxw/201708/t20170810_4840932.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,12 +179,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -158,7 +228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +242,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -479,14 +561,16 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.75" customWidth="1"/>
+    <col min="5" max="5" width="6.375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
     <col min="8" max="8" width="4.75" customWidth="1"/>
     <col min="9" max="9" width="4.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="8" customWidth="1"/>
+    <col min="11" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="62.25" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
     <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -501,25 +585,25 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -531,16 +615,16 @@
       <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -551,24 +635,105 @@
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
+    <row r="3" spans="1:17" ht="36">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="36">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N4" r:id="rId1"/>
+    <hyperlink ref="N3" r:id="rId2"/>
+    <hyperlink ref="N2" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DZ.xlsx
+++ b/DZ.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\demo\test\ProjectDocuments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="75" yWindow="4800" windowWidth="17370" windowHeight="3210"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>保管期限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,14 +147,18 @@
   </si>
   <si>
     <t>http://www.sia.cas.cn/xwzx/tpxw/201708/t20170810_4840932.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -222,13 +231,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +274,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -262,11 +285,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -308,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,9 +371,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,6 +406,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,14 +582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
@@ -575,7 +608,7 @@
     <col min="17" max="17" width="4.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="24">
+    <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -628,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="24">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -661,7 +694,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="36">
+    <row r="3" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>21</v>
       </c>
@@ -694,7 +727,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="36">
+    <row r="4" spans="1:17" ht="36" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -726,6 +759,11 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DZ.xlsx
+++ b/DZ.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>保管期限</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>你好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuck</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +590,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,6 +768,9 @@
       <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
